--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P29_trail11 Features.xlsx
@@ -492,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,29 +503,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,115 +544,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -671,72 +659,66 @@
         <v>8.074628904879799e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5890884291509807</v>
+        <v>3.050490365589842e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.6310690642872778</v>
+        <v>7.1794518090557e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.050490365589842e-07</v>
+        <v>0.02966241193724036</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7.1794518090557e-06</v>
+        <v>0.2556958803227792</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.02966241193724036</v>
+        <v>0.06624735920358885</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2556958803227792</v>
+        <v>1.896412803197259</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06624735920358885</v>
+        <v>2.009088186688232</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.901217432154682</v>
+        <v>3.523517134075209</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.009088186688232</v>
+        <v>4.879413096619799e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.523517134075209</v>
+        <v>110107592.5721824</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.879413096619799e-15</v>
+        <v>1.091318439157408e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>110107592.5721824</v>
+        <v>59.15645244725135</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.091318439157408e-06</v>
+        <v>0.0002011295019977917</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>59.15645244725135</v>
+        <v>9.881409766087142</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002011295019977917</v>
+        <v>1.612690759227212</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.881409766087142</v>
+        <v>0.0196387389196347</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.612690759227212</v>
+        <v>2.918744088824144</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0196387389196347</v>
+        <v>0.9634920987966128</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.918744088824144</v>
+        <v>1.434144111380787</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9634920987966128</v>
+        <v>16</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.434144111380787</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.3136667124725934</v>
       </c>
     </row>
@@ -751,72 +733,66 @@
         <v>8.081716808445146e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.5219457670075616</v>
+        <v>3.050490365589842e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.7064431563180933</v>
+        <v>7.181994959069447e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.050490365589842e-07</v>
+        <v>0.03280120597168243</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>7.181994959069447e-06</v>
+        <v>0.2517607559023454</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03280120597168243</v>
+        <v>0.06445177480214358</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2517607559023454</v>
+        <v>1.899997926457192</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06445177480214358</v>
+        <v>2.224967127621528</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.910237656141344</v>
+        <v>3.548438917009404</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.224967127621528</v>
+        <v>4.811114531089462e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.548438917009404</v>
+        <v>111328094.9695374</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.811114531089462e-15</v>
+        <v>1.077353950057008e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>111328094.9695374</v>
+        <v>59.62868758584003</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.077353950057008e-06</v>
+        <v>0.0001722099256681301</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>59.62868758584003</v>
+        <v>9.234415608322323</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001722099256681301</v>
+        <v>1.587926688026134</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.234415608322323</v>
+        <v>0.01468510353191679</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.587926688026134</v>
+        <v>3.030358476031796</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01468510353191679</v>
+        <v>0.9638889037382427</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.030358476031796</v>
+        <v>1.409154265287115</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9638889037382427</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.409154265287115</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3339478626000813</v>
       </c>
     </row>
@@ -831,72 +807,66 @@
         <v>8.016677859117461e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4735434996954999</v>
+        <v>3.050490365589842e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7350572148502308</v>
+        <v>7.18470442204914e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.050490365589842e-07</v>
+        <v>0.03418092140318608</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>7.18470442204914e-06</v>
+        <v>0.2526972644301968</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.03418092140318608</v>
+        <v>0.06502020948843756</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2526972644301968</v>
+        <v>1.892561221310978</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.06502020948843756</v>
+        <v>2.076358682651901</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.902856743398011</v>
+        <v>3.56464908426262</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.076358682651901</v>
+        <v>4.767457137177646e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.56464908426262</v>
+        <v>105527950.9041037</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.767457137177646e-15</v>
+        <v>1.13250547299599e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>105527950.9041037</v>
+        <v>53.09111027522366</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.13250547299599e-06</v>
+        <v>0.0001522739545634762</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>53.09111027522366</v>
+        <v>9.945924035771009</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001522739545634762</v>
+        <v>1.164173225732819</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.945924035771009</v>
+        <v>0.01506315351895455</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.164173225732819</v>
+        <v>2.873397227953918</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01506315351895455</v>
+        <v>0.9632399130374503</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.873397227953918</v>
+        <v>1.408181107654586</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9632399130374503</v>
+        <v>22</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.408181107654586</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3113640357284987</v>
       </c>
     </row>
@@ -911,72 +881,66 @@
         <v>7.891998709044312e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4503156788584379</v>
+        <v>3.050490365589842e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.736564959306341</v>
+        <v>7.187439397698828e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.050490365589842e-07</v>
+        <v>0.03432369545030031</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.187439397698828e-06</v>
+        <v>0.2569365277945516</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03432369545030031</v>
+        <v>0.06719302512937617</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2569365277945516</v>
+        <v>1.893938819829392</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.06719302512937617</v>
+        <v>1.986168018073313</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.90423716044713</v>
+        <v>3.660127147481885</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.986168018073313</v>
+        <v>4.521973554147837e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.660127147481885</v>
+        <v>110447901.4883845</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.521973554147837e-15</v>
+        <v>1.085172169463618e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>110447901.4883845</v>
+        <v>55.16237489504894</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.085172169463618e-06</v>
+        <v>0.0001589952440112945</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>55.16237489504894</v>
+        <v>10.97327441861933</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001589952440112945</v>
+        <v>1.093734577996475</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.97327441861933</v>
+        <v>0.01914505480145978</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.093734577996475</v>
+        <v>2.660798872223985</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01914505480145978</v>
+        <v>0.9625825017724293</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.660798872223985</v>
+        <v>1.417436639811718</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9625825017724293</v>
+        <v>22</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.417436639811718</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.293926095143856</v>
       </c>
     </row>
@@ -991,72 +955,66 @@
         <v>7.730628601623183e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4492407528373942</v>
+        <v>3.047639563137344e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.7269252278318348</v>
+        <v>7.190097816742079e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.047639563137344e-07</v>
+        <v>0.03358150319981431</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>7.190097816742079e-06</v>
+        <v>0.2628532437900889</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.03358150319981431</v>
+        <v>0.070219214316371</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2628532437900889</v>
+        <v>1.890080782523656</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.070219214316371</v>
+        <v>2.027948260002318</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.903009018124222</v>
+        <v>3.758054205283828</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.027948260002318</v>
+        <v>4.289377634940239e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.758054205283828</v>
+        <v>118422265.4864964</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.289377634940239e-15</v>
+        <v>1.011835566816031e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>118422265.4864964</v>
+        <v>60.15351546743362</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.011835566816031e-06</v>
+        <v>0.0001627641810290623</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>60.15351546743362</v>
+        <v>11.24247774292416</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001627641810290623</v>
+        <v>1.104749658473417</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>11.24247774292416</v>
+        <v>0.02057230290611645</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.104749658473417</v>
+        <v>2.758788850369613</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02057230290611645</v>
+        <v>0.962758496532549</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.758788850369613</v>
+        <v>1.409819783861473</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.962758496532549</v>
+        <v>22</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.409819783861473</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3107583314601461</v>
       </c>
     </row>
@@ -1071,72 +1029,66 @@
         <v>7.558908137194332e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4590727532243298</v>
+        <v>2.987911605623584e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.7116969911378712</v>
+        <v>7.192620478546505e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.987911605623584e-07</v>
+        <v>0.03237250965917316</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>7.192620478546505e-06</v>
+        <v>0.2689219942608183</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.03237250965917316</v>
+        <v>0.0733660934316263</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2689219942608183</v>
+        <v>1.895653676981134</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0733660934316263</v>
+        <v>2.025603392489671</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.90560733255202</v>
+        <v>3.746320135118737</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.025603392489671</v>
+        <v>4.316289740689303e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.746320135118737</v>
+        <v>120848354.0036829</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>4.316289740689303e-15</v>
+        <v>9.934280985212388e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>120848354.0036829</v>
+        <v>63.03649672295939</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>9.934280985212388e-07</v>
+        <v>0.0001868366208022338</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>63.03649672295939</v>
+        <v>11.10091265331434</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001868366208022338</v>
+        <v>1.270052222333495</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.10091265331434</v>
+        <v>0.02302392568342517</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.270052222333495</v>
+        <v>2.856402197281759</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02302392568342517</v>
+        <v>0.9615855615186824</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.856402197281759</v>
+        <v>1.396056439868719</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9615855615186824</v>
+        <v>22</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.396056439868719</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.3849639891796857</v>
       </c>
     </row>
@@ -1151,72 +1103,66 @@
         <v>7.40163046064349e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.46353732382503</v>
+        <v>2.863679756013916e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.6907433278707407</v>
+        <v>7.194997827657013e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.863679756013916e-07</v>
+        <v>0.03130834808808273</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>7.194997827657013e-06</v>
+        <v>0.2741243496413597</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.03130834808808273</v>
+        <v>0.0761211967589724</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2741243496413597</v>
+        <v>1.895937841536276</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0761211967589724</v>
+        <v>1.96886025536503</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.908652237605399</v>
+        <v>3.784193562828435</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.96886025536503</v>
+        <v>4.230324453174332e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.784193562828435</v>
+        <v>131734678.650562</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.230324453174332e-15</v>
+        <v>9.162589241675674e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>131734678.650562</v>
+        <v>73.41315868395586</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>9.162589241675674e-07</v>
+        <v>0.000219895593891441</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>73.41315868395586</v>
+        <v>10.86309614440403</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000219895593891441</v>
+        <v>1.404452656613011</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.86309614440403</v>
+        <v>0.02594918808855386</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.404452656613011</v>
+        <v>2.810158900223747</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02594918808855386</v>
+        <v>0.9611957248633662</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.810158900223747</v>
+        <v>1.388965831459735</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9611957248633662</v>
+        <v>22</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.388965831459735</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.5269755229090589</v>
       </c>
     </row>
@@ -1231,72 +1177,66 @@
         <v>7.275045060173463e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.4499552767990372</v>
+        <v>2.715393792951644e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.6691626566911504</v>
+        <v>7.197274468599375e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.715393792951644e-07</v>
+        <v>0.03091261637248116</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>7.197274468599375e-06</v>
+        <v>0.2784144280800075</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.03091261637248116</v>
+        <v>0.07846578874916983</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2784144280800075</v>
+        <v>1.893771856312308</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.07846578874916983</v>
+        <v>1.921042905698005</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.90258971740971</v>
+        <v>3.939774075818222</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.921042905698005</v>
+        <v>3.405777788213561e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>3.939774075818222</v>
+        <v>161191500.6072574</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>3.405777788213561e-15</v>
+        <v>7.481878160523481e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>161191500.6072574</v>
+        <v>88.49130208832011</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.481878160523481e-07</v>
+        <v>0.0002022178669712281</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>88.49130208832011</v>
+        <v>12.01575543781416</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0002022178669712281</v>
+        <v>1.178988492098783</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>12.01575543781416</v>
+        <v>0.02919588778584201</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.178988492098783</v>
+        <v>2.867322866976468</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02919588778584201</v>
+        <v>0.9611230540212647</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.867322866976468</v>
+        <v>1.413622405706927</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9611230540212647</v>
+        <v>22</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.413622405706927</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.7194779581688731</v>
       </c>
     </row>
@@ -1311,72 +1251,66 @@
         <v>7.183922672396253e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.4159383165459745</v>
+        <v>2.695278803646647e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.6568960220152604</v>
+        <v>7.199502634743338e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.695278803646647e-07</v>
+        <v>0.03075580807465645</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>7.199502634743338e-06</v>
+        <v>0.2816245331354404</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.03075580807465645</v>
+        <v>0.08025274972258926</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2816245331354404</v>
+        <v>1.903915791764876</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.08025274972258926</v>
+        <v>2.278602882394464</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.929244519373116</v>
+        <v>3.893036501156252</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>2.278602882394464</v>
+        <v>3.00178793642551e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.893036501156252</v>
+        <v>180671391.9638422</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>3.00178793642551e-15</v>
+        <v>6.685136024713293e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>180671391.9638422</v>
+        <v>97.98481771479972</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.685136024713293e-07</v>
+        <v>0.0001920110946885658</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>97.98481771479972</v>
+        <v>12.66162321788023</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001920110946885658</v>
+        <v>1.104877381603332</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>12.66162321788023</v>
+        <v>0.03078258554610652</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.104877381603332</v>
+        <v>2.909310859565276</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.03078258554610652</v>
+        <v>0.9617860875384525</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.909310859565276</v>
+        <v>1.258286979214531</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9617860875384525</v>
+        <v>19</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.258286979214531</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.8031509321707124</v>
       </c>
     </row>
@@ -1391,72 +1325,66 @@
         <v>7.133551931594865e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3635496819308476</v>
+        <v>2.695278803646647e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.6639329940627174</v>
+        <v>7.201677252058068e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>2.695278803646647e-07</v>
+        <v>0.02990375442163717</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>7.201677252058068e-06</v>
+        <v>0.2828147110410859</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02990375442163717</v>
+        <v>0.08086829531788771</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2828147110410859</v>
+        <v>1.907320572369864</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.08086829531788771</v>
+        <v>1.99329764988909</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.937906334451944</v>
+        <v>3.914361743779314</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.99329764988909</v>
+        <v>2.866948528903132e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.914361743779314</v>
+        <v>187693287.2183114</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.866948528903132e-15</v>
+        <v>6.429745570155752e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>187693287.2183114</v>
+        <v>100.9990705181235</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.429745570155752e-07</v>
+        <v>0.0001804206007274924</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>100.9990705181235</v>
+        <v>11.3643035173835</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001804206007274924</v>
+        <v>1.239726662541852</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.3643035173835</v>
+        <v>0.02330085048639189</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.239726662541852</v>
+        <v>3.076306552887755</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.02330085048639189</v>
+        <v>0.9623187310713757</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.076306552887755</v>
+        <v>1.206911911182292</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9623187310713757</v>
+        <v>19</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.206911911182292</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.8270777858713987</v>
       </c>
     </row>
@@ -1471,72 +1399,66 @@
         <v>7.136968654499317e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.2989130247512766</v>
+        <v>2.695278803646647e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.7055460172426096</v>
+        <v>7.203737491773576e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.695278803646647e-07</v>
+        <v>0.02769629534133411</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>7.203737491773576e-06</v>
+        <v>0.2802913561671835</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02769629534133411</v>
+        <v>0.07931032966991132</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2802913561671835</v>
+        <v>1.909044680043298</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.07931032966991132</v>
+        <v>2.024541626145252</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.940838302353112</v>
+        <v>4.151283098954112</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>2.024541626145252</v>
+        <v>2.549042696190248e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.151283098954112</v>
+        <v>210368744.304018</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.549042696190248e-15</v>
+        <v>5.733298116057085e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>210368744.304018</v>
+        <v>112.8079063908114</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>5.733298116057085e-07</v>
+        <v>0.0001549612561228071</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>112.8079063908114</v>
+        <v>10.6219026693594</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001549612561228071</v>
+        <v>1.160615019910159</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>10.6219026693594</v>
+        <v>0.01748347525836066</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.160615019910159</v>
+        <v>3.151049244032579</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01748347525836066</v>
+        <v>0.9612325910349627</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.151049244032579</v>
+        <v>1.201464136501796</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9612325910349627</v>
+        <v>19</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.201464136501796</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.9232669284687651</v>
       </c>
     </row>
@@ -1551,72 +1473,66 @@
         <v>7.204516951195108e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.240618795890212</v>
+        <v>2.695278803646647e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.7894373008794822</v>
+        <v>7.205594323633449e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>2.695278803646647e-07</v>
+        <v>0.02406637307694387</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>7.205594323633449e-06</v>
+        <v>0.2728760684605626</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.02406637307694387</v>
+        <v>0.07501324973016568</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2728760684605626</v>
+        <v>1.910283410697396</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.07501324973016568</v>
+        <v>2.034560012898225</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.941097341208841</v>
+        <v>4.501300067303053</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.034560012898225</v>
+        <v>2.168032970998864e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.501300067303053</v>
+        <v>250044886.587937</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.168032970998864e-15</v>
+        <v>4.817064562700568e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>250044886.587937</v>
+        <v>135.5507228568959</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.817064562700568e-07</v>
+        <v>0.0001532776489680977</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>135.5507228568959</v>
+        <v>10.94928604867084</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001532776489680977</v>
+        <v>1.06013342128923</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>10.94928604867084</v>
+        <v>0.01837597680561848</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.06013342128923</v>
+        <v>2.994930183881956</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01837597680561848</v>
+        <v>0.9607744493923518</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.994930183881956</v>
+        <v>1.200972022335397</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9607744493923518</v>
+        <v>19</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.200972022335397</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.900527492274752</v>
       </c>
     </row>
@@ -1631,72 +1547,66 @@
         <v>7.326538562804012e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2132090562028926</v>
+        <v>2.695278803646647e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.8826462031250939</v>
+        <v>7.207173400743982e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.695278803646647e-07</v>
+        <v>0.01928648753526919</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>7.207173400743982e-06</v>
+        <v>0.2610429814070652</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.01928648753526919</v>
+        <v>0.06848148111312372</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2610429814070652</v>
+        <v>1.905322711409703</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.06848148111312372</v>
+        <v>2.013145702258706</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.935910032307772</v>
+        <v>4.630506343444399</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.013145702258706</v>
+        <v>1.547503820034269e-15</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.630506343444399</v>
+        <v>329681612.2227309</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.547503820034269e-15</v>
+        <v>3.632372528749081e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>329681612.2227309</v>
+        <v>168.1981367143558</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.632372528749081e-07</v>
+        <v>0.0001560282137480242</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>168.1981367143558</v>
+        <v>11.61917477899547</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001560282137480242</v>
+        <v>1.039992843764493</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.61917477899547</v>
+        <v>0.02106462372032656</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.039992843764493</v>
+        <v>2.917913215453343</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02106462372032656</v>
+        <v>0.9589823131349968</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.917913215453343</v>
+        <v>1.234029783815228</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9589823131349968</v>
+        <v>36</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.234029783815228</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.862114822980254</v>
       </c>
     </row>
@@ -1711,72 +1621,66 @@
         <v>7.470763115417763e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.22762250407191</v>
+        <v>2.695278803646647e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.9229883056368466</v>
+        <v>7.208360962637743e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.695278803646647e-07</v>
+        <v>0.01272116386809061</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>7.208360962637743e-06</v>
+        <v>0.2440189421903729</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.01272116386809061</v>
+        <v>0.05966763869580267</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2440189421903729</v>
+        <v>1.905452688563263</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.05966763869580267</v>
+        <v>2.196821654338525</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.937517347369047</v>
+        <v>4.382686658600226</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.196821654338525</v>
+        <v>1.248322876877449e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.382686658600226</v>
+        <v>414889190.1843289</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.248322876877449e-15</v>
+        <v>2.889197984508676e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>414889190.1843289</v>
+        <v>214.8776118630003</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.889197984508676e-07</v>
+        <v>0.0001529700658611521</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>214.8776118630003</v>
+        <v>11.04765325126776</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001529700658611521</v>
+        <v>1.159714733553158</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.04765325126776</v>
+        <v>0.01867009480024292</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.159714733553158</v>
+        <v>3.123828398446427</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01867009480024292</v>
+        <v>0.9591656551887165</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.123828398446427</v>
+        <v>1.201595976556596</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9591656551887165</v>
+        <v>45</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.201595976556596</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.8841643944998434</v>
       </c>
     </row>
@@ -1791,72 +1695,66 @@
         <v>7.592597585214779e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2688018303130074</v>
+        <v>2.73705174810735e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.8791541772686751</v>
+        <v>7.209087207657761e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.73705174810735e-07</v>
+        <v>0.007386819152587496</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>7.209087207657761e-06</v>
+        <v>0.2298124900615801</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.007386819152587496</v>
+        <v>0.0528435861901769</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2298124900615801</v>
+        <v>1.907123851691482</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.0528435861901769</v>
+        <v>2.166700875666944</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.933338056981089</v>
+        <v>4.729448299871969</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.166700875666944</v>
+        <v>1.07198031002909e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.729448299871969</v>
+        <v>484723626.4574242</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.07198031002909e-15</v>
+        <v>2.47421049798549e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>484723626.4574242</v>
+        <v>251.8692713209733</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.47421049798549e-07</v>
+        <v>0.0001467499866160858</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>251.8692713209733</v>
+        <v>8.799716751698091</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001467499866160858</v>
+        <v>1.475396888348769</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.799716751698091</v>
+        <v>0.01136358740167592</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.475396888348769</v>
+        <v>3.338189001579634</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01136358740167592</v>
+        <v>0.9587164188204379</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.338189001579634</v>
+        <v>1.215619848725229</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9587164188204379</v>
+        <v>45</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.215619848725229</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.9460955851391727</v>
       </c>
     </row>
@@ -1871,72 +1769,66 @@
         <v>7.705522190207703e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.3269741612027614</v>
+        <v>3.029568275261918e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7564083983862475</v>
+        <v>7.209626702371061e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.029568275261918e-07</v>
+        <v>0.007975123092943317</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>7.209626702371061e-06</v>
+        <v>0.2271814302415989</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.007975123092943317</v>
+        <v>0.05166212679811985</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2271814302415989</v>
+        <v>1.907718737924155</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.05166212679811985</v>
+        <v>2.196395783235218</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.93239256383968</v>
+        <v>4.900859746010859</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.196395783235218</v>
+        <v>8.14935932454085e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.900859746010859</v>
+        <v>654913639.0278723</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>8.14935932454085e-16</v>
+        <v>1.835667853962024e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>654913639.0278723</v>
+        <v>349.5356984553366</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.835667853962024e-07</v>
+        <v>0.0001295083882510653</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>349.5356984553366</v>
+        <v>7.363726354202464</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001295083882510653</v>
+        <v>1.447405144322292</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.363726354202464</v>
+        <v>0.007022523172068256</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.447405144322292</v>
+        <v>3.456431055100843</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.007022523172068256</v>
+        <v>0.9592359007505767</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.456431055100843</v>
+        <v>1.226730058683117</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9592359007505767</v>
+        <v>45</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.226730058683117</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>1.117533485287835</v>
       </c>
     </row>
@@ -1951,72 +1843,66 @@
         <v>7.902131832652812e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4423207886966019</v>
+        <v>3.356522227807549e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.4575189339475885</v>
+        <v>7.210470822803668e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>3.356522227807549e-07</v>
+        <v>0.01447808315610876</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>7.210470822803668e-06</v>
+        <v>0.2272928554356907</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.01447808315610876</v>
+        <v>0.05185922860973805</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2272928554356907</v>
+        <v>1.908944900799578</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.05185922860973805</v>
+        <v>2.380446488635365</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.933040563079367</v>
+        <v>5.241869365304638</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.380446488635365</v>
+        <v>6.645491886226649e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.241869365304638</v>
+        <v>831681355.1839064</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>6.645491886226649e-16</v>
+        <v>1.451743215173006e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>831681355.1839064</v>
+        <v>459.664604443572</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>1.451743215173006e-07</v>
+        <v>0.0001334544013603945</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>459.664604443572</v>
+        <v>8.429625472815518</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001334544013603945</v>
+        <v>1.42983472899014</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.429625472815518</v>
+        <v>0.009483081004357827</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.42983472899014</v>
+        <v>3.293590877921993</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.009483081004357827</v>
+        <v>0.9582630153194932</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.293590877921993</v>
+        <v>1.243096047359294</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9582630153194932</v>
+        <v>57</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.243096047359294</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.184367596546438</v>
       </c>
     </row>
@@ -2031,72 +1917,66 @@
         <v>8.2696199230032e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.6402906546646213</v>
+        <v>3.688707860176417e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.07277676933963573</v>
+        <v>7.212022339361986e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>3.688707860176417e-07</v>
+        <v>0.02424430177299978</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>7.212022339361986e-06</v>
+        <v>0.2204232696782821</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.02424430177299978</v>
+        <v>0.04915739326386438</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2204232696782821</v>
+        <v>1.909872477990438</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.04915739326386438</v>
+        <v>2.54122988356841</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.935056243274557</v>
+        <v>5.180036308293699</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.54122988356841</v>
+        <v>6.805090597792143e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.180036308293699</v>
+        <v>821351570.3437821</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>6.805090597792143e-16</v>
+        <v>1.467518513829295e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>821351570.3437821</v>
+        <v>459.0839345270439</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>1.467518513829295e-07</v>
+        <v>0.0001358493143248165</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>459.0839345270439</v>
+        <v>8.695876060645068</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001358493143248165</v>
+        <v>1.465738655184499</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.695876060645068</v>
+        <v>0.01027268883421167</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.465738655184499</v>
+        <v>3.207378289875838</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01027268883421167</v>
+        <v>0.9592882900068855</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.207378289875838</v>
+        <v>1.221824393990027</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9592882900068855</v>
+        <v>85</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.221824393990027</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>1.209468134266998</v>
       </c>
     </row>
@@ -2111,72 +1991,66 @@
         <v>8.839038465293747e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.8744055153807824</v>
+        <v>4.013949159779651e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.6551340037609537</v>
+        <v>7.214546001696904e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.013949159779651e-07</v>
+        <v>0.03462224481583804</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>7.214546001696904e-06</v>
+        <v>0.2050848615698583</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.03462224481583804</v>
+        <v>0.04324070221157102</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2050848615698583</v>
+        <v>1.908462779505561</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.04324070221157102</v>
+        <v>2.371508586220737</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.928897316946319</v>
+        <v>6.00336333886677</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.371508586220737</v>
+        <v>9.266833616335381e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>6.00336333886677</v>
+        <v>604498013.6087296</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>9.266833616335381e-16</v>
+        <v>1.993077723275256e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>604498013.6087296</v>
+        <v>338.6266402089348</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.993077723275256e-07</v>
+        <v>0.0001402348682029889</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>338.6266402089348</v>
+        <v>9.240292628540944</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001402348682029889</v>
+        <v>1.495079234201816</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.240292628540944</v>
+        <v>0.01197367485417165</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.495079234201816</v>
+        <v>3.252547654179299</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01197367485417165</v>
+        <v>0.9609043053051632</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.252547654179299</v>
+        <v>1.244657255423174</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9609043053051632</v>
+        <v>91</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.244657255423174</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>1.337803704225291</v>
       </c>
     </row>
@@ -2191,72 +2065,66 @@
         <v>9.569945853684479e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.064858265801723</v>
+        <v>4.264350617779217e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.035217695705291</v>
+        <v>7.218136937432138e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.264350617779217e-07</v>
+        <v>0.0427736754819057</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>7.218136937432138e-06</v>
+        <v>0.1836865327015641</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.0427736754819057</v>
+        <v>0.03555777227180921</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.1836865327015641</v>
+        <v>1.904344576139165</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.03555777227180921</v>
+        <v>1.9668418669017</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.916456976058379</v>
+        <v>5.219321348655773</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.9668418669017</v>
+        <v>2.363781443459398e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.219321348655773</v>
+        <v>234949223.3200886</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>2.363781443459398e-15</v>
+        <v>5.1305152662934e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>234949223.3200886</v>
+        <v>130.4834245718595</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>5.1305152662934e-07</v>
+        <v>0.0001084012197546656</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>130.4834245718595</v>
+        <v>6.650719294990359</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001084012197546656</v>
+        <v>1.927324669551087</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>6.650719294990359</v>
+        <v>0.00479481003032833</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.927324669551087</v>
+        <v>3.686522206438495</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.00479481003032833</v>
+        <v>0.9590116115746217</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.686522206438495</v>
+        <v>1.348564517946469</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9590116115746217</v>
+        <v>91</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.348564517946469</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>1.077627129895303</v>
       </c>
     </row>
@@ -2271,72 +2139,66 @@
         <v>1.035765147720179e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1.161912951433004</v>
+        <v>4.378080946365065e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.093614174204049</v>
+        <v>7.222663404520409e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.378080946365065e-07</v>
+        <v>0.04743950766422451</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>7.222663404520409e-06</v>
+        <v>0.161573688065515</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.04743950766422451</v>
+        <v>0.02834848920262818</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.161573688065515</v>
+        <v>1.908285914171749</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.02834848920262818</v>
+        <v>1.895924649722593</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.918099249989271</v>
+        <v>4.26361942352718</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.895924649722593</v>
+        <v>3.532863660284853e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.26361942352718</v>
+        <v>157389072.6604057</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.532863660284853e-15</v>
+        <v>7.648042179682978e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>157389072.6604057</v>
+        <v>87.51369692678551</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>7.648042179682978e-07</v>
+        <v>0.0001578514217936789</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>87.51369692678551</v>
+        <v>9.31931183250178</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001578514217936789</v>
+        <v>1.504072314091458</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.31931183250178</v>
+        <v>0.01370932858518166</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.504072314091458</v>
+        <v>3.266904660196226</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01370932858518166</v>
+        <v>0.9594591000126527</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.266904660196226</v>
+        <v>1.327219283236438</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9594591000126527</v>
+        <v>91</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.327219283236438</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.6562278724719883</v>
       </c>
     </row>
@@ -2351,72 +2213,66 @@
         <v>1.110177725421962e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.173597676540775</v>
+        <v>4.388600943132942e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.9120180842904744</v>
+        <v>7.227885764204862e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.388600943132942e-07</v>
+        <v>0.04941964925254583</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>7.227885764204862e-06</v>
+        <v>0.1436296360536072</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.04941964925254583</v>
+        <v>0.02306665423441618</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1436296360536072</v>
+        <v>1.897838992520934</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.02306665423441618</v>
+        <v>1.928730446099095</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.905217434420787</v>
+        <v>3.936765479017249</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.928730446099095</v>
+        <v>3.631334425898825e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.936765479017249</v>
+        <v>142779465.0304656</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.631334425898825e-15</v>
+        <v>8.383372231857033e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>142779465.0304656</v>
+        <v>74.02829512668032</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>8.383372231857033e-07</v>
+        <v>0.0001695143610764216</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>74.02829512668032</v>
+        <v>11.62706780467649</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001695143610764216</v>
+        <v>1.139701197748828</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.62706780467649</v>
+        <v>0.0229164270773397</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.139701197748828</v>
+        <v>2.914948561928394</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0229164270773397</v>
+        <v>0.9590456236442002</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>2.914948561928394</v>
+        <v>1.378278626478997</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9590456236442002</v>
+        <v>91</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.378278626478997</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.4986175190785176</v>
       </c>
     </row>
@@ -2431,72 +2287,66 @@
         <v>1.174939519757288e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.133131211491942</v>
+        <v>4.388600943132942e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0.6287648238814363</v>
+        <v>7.233582036006866e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>4.388600943132942e-07</v>
+        <v>0.05005215325593767</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>7.233582036006866e-06</v>
+        <v>0.1308160027712772</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.05005215325593767</v>
+        <v>0.01961503108985865</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1308160027712772</v>
+        <v>1.898046063405415</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01961503108985865</v>
+        <v>2.060725767331272</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.901561803515419</v>
+        <v>4.024605262247126</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.060725767331272</v>
+        <v>3.474551498483696e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.024605262247126</v>
+        <v>148840215.9575776</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.474551498483696e-15</v>
+        <v>8.052221239165382e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>148840215.9575776</v>
+        <v>76.97316351696146</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>8.052221239165382e-07</v>
+        <v>0.0001585990053349111</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>76.97316351696146</v>
+        <v>11.55501451776774</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001585990053349111</v>
+        <v>1.083605480943628</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>11.55501451776774</v>
+        <v>0.02117587917017164</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.083605480943628</v>
+        <v>2.758189026380093</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.02117587917017164</v>
+        <v>0.9591429301961989</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>2.758189026380093</v>
+        <v>1.410026652374801</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9591429301961989</v>
+        <v>108</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.410026652374801</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.4228095878471562</v>
       </c>
     </row>
@@ -2511,72 +2361,66 @@
         <v>1.229345671390364e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.069561373397136</v>
+        <v>4.388600943132942e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>0.336037261535195</v>
+        <v>7.239622517317892e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>4.388600943132942e-07</v>
+        <v>0.05023255908478292</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>7.239622517317892e-06</v>
+        <v>0.1217539952856328</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.05023255908478292</v>
+        <v>0.01734556251947878</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1217539952856328</v>
+        <v>1.89628278422932</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01734556251947878</v>
+        <v>2.081376138177204</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.892532754941331</v>
+        <v>4.032821625990344</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.081376138177204</v>
+        <v>3.460408002961234e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.032821625990344</v>
+        <v>157498262.7378485</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.460408002961234e-15</v>
+        <v>7.6398475829546e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>157498262.7378485</v>
+        <v>85.83785236860743</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.6398475829546e-07</v>
+        <v>0.0001493471030529013</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>85.83785236860743</v>
+        <v>9.35758400326209</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001493471030529013</v>
+        <v>1.203245243884142</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.35758400326209</v>
+        <v>0.01307748624139833</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.203245243884142</v>
+        <v>2.939416505184428</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.01307748624139833</v>
+        <v>0.95961750972038</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.939416505184428</v>
+        <v>1.392168165090099</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.95961750972038</v>
+        <v>119</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.392168165090099</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.3638287648871317</v>
       </c>
     </row>
@@ -2591,72 +2435,66 @@
         <v>1.27327270093753e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.9973701217640881</v>
+        <v>4.388600943132942e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>0.06575608545572731</v>
+        <v>7.245882022198462e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>4.388600943132942e-07</v>
+        <v>0.04952057922754016</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>7.245882022198462e-06</v>
+        <v>0.116137893256201</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04952057922754016</v>
+        <v>0.01593881542355885</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.116137893256201</v>
+        <v>1.902280829370835</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01593881542355885</v>
+        <v>1.975450262981216</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.897417700425956</v>
+        <v>4.017166212518059</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.975450262981216</v>
+        <v>3.487431868517696e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.017166212518059</v>
+        <v>161485765.4007216</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.487431868517696e-15</v>
+        <v>7.483197380916417e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>161485765.4007216</v>
+        <v>90.94403613024606</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>7.483197380916417e-07</v>
+        <v>0.0001480408542321698</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>90.94403613024606</v>
+        <v>8.141253608713914</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001480408542321698</v>
+        <v>1.343065979146241</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>8.141253608713914</v>
+        <v>0.00981214934649669</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.343065979146241</v>
+        <v>3.008585202591596</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.00981214934649669</v>
+        <v>0.9590629192332182</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.008585202591596</v>
+        <v>1.411452465100912</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9590629192332182</v>
+        <v>119</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.411452465100912</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.369372933733367</v>
       </c>
     </row>
@@ -2671,72 +2509,66 @@
         <v>1.305798263081239e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.9222539410716897</v>
+        <v>4.388600943132942e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.1749071470284775</v>
+        <v>7.252178666953153e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>4.388600943132942e-07</v>
+        <v>0.04793043781627444</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>7.252178666953153e-06</v>
+        <v>0.1137696628918561</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.04793043781627444</v>
+        <v>0.01523924410730402</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1137696628918561</v>
+        <v>1.902904771411908</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01523924410730402</v>
+        <v>2.01318228652862</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.896102048583924</v>
+        <v>4.200913336033023</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.01318228652862</v>
+        <v>3.189024751192852e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.200913336033023</v>
+        <v>181960763.0277678</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.189024751192852e-15</v>
+        <v>6.65517145922853e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>181960763.0277678</v>
+        <v>105.587714294221</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>6.65517145922853e-07</v>
+        <v>0.0001471249421348774</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>105.587714294221</v>
+        <v>8.228299940736861</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001471249421348774</v>
+        <v>1.343653867085242</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.228299940736861</v>
+        <v>0.009961082424701194</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.343653867085242</v>
+        <v>3.039983929130852</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.009961082424701194</v>
+        <v>0.9604551588095347</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.039983929130852</v>
+        <v>1.402391205170341</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9604551588095347</v>
+        <v>119</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.402391205170341</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>119</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.3891901611263227</v>
       </c>
     </row>
@@ -2751,72 +2583,66 @@
         <v>1.32699556708386e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.848749984385175</v>
+        <v>4.388600943132942e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.3805791415955571</v>
+        <v>7.258374060965225e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>4.388600943132942e-07</v>
+        <v>0.0461116537332073</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>7.258374060965225e-06</v>
+        <v>0.1134425552999779</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.0461116537332073</v>
+        <v>0.01499414931440243</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1134425552999779</v>
+        <v>1.896589658049178</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01499414931440243</v>
+        <v>2.077419831938251</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.890464834404818</v>
+        <v>4.293887298954582</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.077419831938251</v>
+        <v>3.052418321538259e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.293887298954582</v>
+        <v>186443920.3033082</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>3.052418321538259e-15</v>
+        <v>6.499507633049986e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>186443920.3033082</v>
+        <v>106.1061371112425</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>6.499507633049986e-07</v>
+        <v>0.0001438549057565401</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>106.1061371112425</v>
+        <v>9.661279267565265</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001438549057565401</v>
+        <v>1.177175548999973</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.661279267565265</v>
+        <v>0.01342746251767576</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.177175548999973</v>
+        <v>2.988983605112491</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01342746251767576</v>
+        <v>0.9602567861175558</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.988983605112491</v>
+        <v>1.401030964410039</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9602567861175558</v>
+        <v>126</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.401030964410039</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.3995356728120485</v>
       </c>
     </row>
@@ -2831,72 +2657,66 @@
         <v>1.3383737874487e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.7807062465411171</v>
+        <v>4.388600943132942e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.5503149059296475</v>
+        <v>7.264420414589511e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>4.388600943132942e-07</v>
+        <v>0.04463667251150237</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>7.264420414589511e-06</v>
+        <v>0.1137924853851691</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.04463667251150237</v>
+        <v>0.01494057585631153</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1137924853851691</v>
+        <v>1.898293667191894</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01494057585631153</v>
+        <v>2.181712549508351</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.890466784009679</v>
+        <v>4.074165888925385</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>2.181712549508351</v>
+        <v>3.390532547894828e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.074165888925385</v>
+        <v>168412687.7845231</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>3.390532547894828e-15</v>
+        <v>7.19305976449035e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>168412687.7845231</v>
+        <v>96.16510981629875</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>7.19305976449035e-07</v>
+        <v>0.0001361754007165498</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>96.16510981629875</v>
+        <v>10.38394750286411</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001361754007165498</v>
+        <v>1.092444635668731</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.38394750286411</v>
+        <v>0.0146832985627585</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.092444635668731</v>
+        <v>2.908067911201266</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.0146832985627585</v>
+        <v>0.9616156233348501</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.908067911201266</v>
+        <v>1.411194130220713</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9616156233348501</v>
+        <v>109</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.411194130220713</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.4167373640442664</v>
       </c>
     </row>
@@ -2911,72 +2731,66 @@
         <v>1.342397769234064e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.7195953447758825</v>
+        <v>4.388600943132942e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.690231288786598</v>
+        <v>7.270339644084567e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>4.388600943132942e-07</v>
+        <v>0.04371084435366038</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>7.270339644084567e-06</v>
+        <v>0.1141560240747291</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04371084435366038</v>
+        <v>0.01494226202832236</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1141560240747291</v>
+        <v>1.901453656024492</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01494226202832236</v>
+        <v>2.109168868469653</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.894778680632465</v>
+        <v>3.80535298630128</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>2.109168868469653</v>
+        <v>3.886471056555714e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.80535298630128</v>
+        <v>146382926.2591227</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>3.886471056555714e-15</v>
+        <v>8.276876331048639e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>146382926.2591227</v>
+        <v>83.27915061686586</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>8.276876331048639e-07</v>
+        <v>0.0001348648865985172</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>83.27915061686586</v>
+        <v>8.89834607154272</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001348648865985172</v>
+        <v>1.175169502844118</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.89834607154272</v>
+        <v>0.01067867762403443</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.175169502844118</v>
+        <v>3.028394538436471</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01067867762403443</v>
+        <v>0.9613046930565454</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.028394538436471</v>
+        <v>1.425951430046654</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9613046930565454</v>
+        <v>100</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.425951430046654</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.3866806900713601</v>
       </c>
     </row>
@@ -2991,72 +2805,66 @@
         <v>1.341698811429315e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.6641408572629185</v>
+        <v>4.382030634964571e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.8093429484771595</v>
+        <v>7.276169947936508e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>4.382030634964571e-07</v>
+        <v>0.04318227941542401</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>7.276169947936508e-06</v>
+        <v>0.1145059503796342</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.04318227941542401</v>
+        <v>0.01497653098418344</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1145059503796342</v>
+        <v>1.898386192014002</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01497653098418344</v>
+        <v>1.981053128790904</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.895596321706343</v>
+        <v>3.695071603783776</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.981053128790904</v>
+        <v>4.121920555920599e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.695071603783776</v>
+        <v>137537490.1901373</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>4.121920555920599e-15</v>
+        <v>8.801315530212398e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>137537490.1901373</v>
+        <v>77.97256248976973</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>8.801315530212398e-07</v>
+        <v>0.0001465492936137703</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>77.97256248976973</v>
+        <v>8.478744232065107</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001465492936137703</v>
+        <v>1.255419611805263</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>8.478744232065107</v>
+        <v>0.01053529737349656</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.255419611805263</v>
+        <v>2.932897224308493</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.01053529737349656</v>
+        <v>0.9591701109361056</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.932897224308493</v>
+        <v>1.401844759425567</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9591701109361056</v>
+        <v>100</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.401844759425567</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.3643119983388969</v>
       </c>
     </row>
@@ -3071,72 +2879,66 @@
         <v>1.338628973946268e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.6113684155815827</v>
+        <v>4.336444432096762e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.9146708016470382</v>
+        <v>7.281927884620104e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>4.336444432096762e-07</v>
+        <v>0.04272867065990443</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>7.281927884620104e-06</v>
+        <v>0.1148907567184699</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.04272867065990443</v>
+        <v>0.01502572138344083</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1148907567184699</v>
+        <v>1.898429835484982</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01502572138344083</v>
+        <v>2.014520443718752</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.895633898813688</v>
+        <v>3.723223176925105</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.014520443718752</v>
+        <v>3.907203772546371e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.723223176925105</v>
+        <v>142890075.6366604</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>3.907203772546371e-15</v>
+        <v>8.44926045906495e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>142890075.6366604</v>
+        <v>79.77562104725196</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>8.44926045906495e-07</v>
+        <v>0.0001574957454718795</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>79.77562104725196</v>
+        <v>9.235629190000072</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001574957454718795</v>
+        <v>1.238621979308288</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.235629190000072</v>
+        <v>0.01343389043145889</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.238621979308288</v>
+        <v>2.75210771062534</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01343389043145889</v>
+        <v>0.9599325588747024</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.75210771062534</v>
+        <v>1.407520100176991</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9599325588747024</v>
+        <v>100</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.407520100176991</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.3661817388932113</v>
       </c>
     </row>
@@ -3513,7 +3315,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.602723970665836</v>
+        <v>1.530802393752565</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.153020499479547</v>
@@ -3602,7 +3404,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.612859015710272</v>
+        <v>1.533930384188709</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.074724852882378</v>
@@ -3691,7 +3493,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.619332479876885</v>
+        <v>1.537256808668979</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.956271896747422</v>
@@ -3780,7 +3582,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.626284249969716</v>
+        <v>1.547351493606552</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.008491023228878</v>
@@ -3869,7 +3671,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.626056177049181</v>
+        <v>1.553731532184424</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.919844475173733</v>
@@ -3958,7 +3760,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.624578806386134</v>
+        <v>1.551412017967958</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.290621702408528</v>
@@ -4047,7 +3849,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.626720877063101</v>
+        <v>1.548951090176442</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.20454236241169</v>
@@ -4136,7 +3938,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.620326903928347</v>
+        <v>1.542605671394721</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.247847131972402</v>
@@ -4225,7 +4027,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.633684988125956</v>
+        <v>1.554168617690437</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.651661125501479</v>
@@ -4314,7 +4116,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.632389891340006</v>
+        <v>1.550866521737643</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.030601755927417</v>
@@ -4403,7 +4205,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.634903116821232</v>
+        <v>1.551617819279726</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.465670320140746</v>
@@ -4492,7 +4294,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.637112909636479</v>
+        <v>1.562045415682975</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.030305221463907</v>
@@ -4581,7 +4383,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.640124383760409</v>
+        <v>1.562342090737912</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.228116977936551</v>
@@ -4670,7 +4472,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.644785154378878</v>
+        <v>1.562033891835416</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.627145215196083</v>
@@ -4759,7 +4561,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.637706451261805</v>
+        <v>1.55070658760441</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.485978995409978</v>
@@ -4848,7 +4650,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.624180728123258</v>
+        <v>1.539999521856835</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.439790153717256</v>
@@ -4937,7 +4739,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.617690964390308</v>
+        <v>1.536702233081717</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.651499234135708</v>
@@ -5026,7 +4828,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.621826418614574</v>
+        <v>1.531506791334156</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.114473538982749</v>
@@ -5115,7 +4917,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.628176816203671</v>
+        <v>1.53718835586869</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.701324588734668</v>
@@ -5204,7 +5006,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.63319429768879</v>
+        <v>1.53330352703625</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.638931637413841</v>
@@ -5293,7 +5095,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.632218955788787</v>
+        <v>1.537033263658323</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.540011804152053</v>
@@ -5382,7 +5184,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.624473807541869</v>
+        <v>1.530270673643083</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.800437461541015</v>
@@ -5471,7 +5273,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.623967295343762</v>
+        <v>1.530267038642781</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.338560321482396</v>
@@ -5560,7 +5362,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.623203273847049</v>
+        <v>1.533325022787567</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.494851053172058</v>
@@ -5649,7 +5451,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.618657992424394</v>
+        <v>1.532216089993752</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.635554150756485</v>
@@ -5738,7 +5540,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.619836817243495</v>
+        <v>1.536350991826432</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.542125960944858</v>
@@ -5827,7 +5629,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.616639374010109</v>
+        <v>1.53176592290628</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.326886284003885</v>
@@ -5916,7 +5718,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.615188065945569</v>
+        <v>1.532579992993463</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.314813278424869</v>
@@ -6005,7 +5807,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.601863569721688</v>
+        <v>1.5285479997551</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.148287933246654</v>
@@ -6094,7 +5896,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.601890551336166</v>
+        <v>1.531777247456459</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.517527156520035</v>
@@ -6183,7 +5985,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.610504929064454</v>
+        <v>1.536182206429371</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.201914708500838</v>
@@ -6272,7 +6074,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.61266749459254</v>
+        <v>1.536787715253196</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.303388072699852</v>
@@ -6361,7 +6163,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.599683638241459</v>
+        <v>1.534845414012272</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.373666925462547</v>
@@ -6450,7 +6252,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.590715724203236</v>
+        <v>1.530011910947842</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.98721188654641</v>
@@ -6539,7 +6341,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.589504654712951</v>
+        <v>1.533438580816422</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.296059646867289</v>
@@ -6628,7 +6430,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.578612178902907</v>
+        <v>1.516753426266966</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.37983267662371</v>
@@ -6717,7 +6519,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.585465137183121</v>
+        <v>1.515264315586169</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.108682356608553</v>
@@ -6806,7 +6608,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.574574171666491</v>
+        <v>1.506492928042752</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.173537398245336</v>
@@ -6895,7 +6697,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.562338618218846</v>
+        <v>1.494632161236412</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.937515198653607</v>
@@ -6984,7 +6786,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.563248193031629</v>
+        <v>1.493411859438376</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.140345190992404</v>
@@ -7073,7 +6875,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.55001914656915</v>
+        <v>1.481598987643269</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.133219969169009</v>
@@ -7162,7 +6964,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.546408893089755</v>
+        <v>1.482153999810104</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.305084465875871</v>
@@ -7251,7 +7053,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.548593982307898</v>
+        <v>1.485726298207086</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.071517557093747</v>
@@ -7340,7 +7142,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.561732580857649</v>
+        <v>1.494929645168165</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.140336007945171</v>
@@ -7429,7 +7231,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.567885597079786</v>
+        <v>1.499664934583407</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.051884478158966</v>
@@ -7518,7 +7320,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.56309875907118</v>
+        <v>1.498772642664819</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.188261814763452</v>
@@ -7607,7 +7409,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.566773069662975</v>
+        <v>1.504365072934308</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.195649789912194</v>
@@ -7696,7 +7498,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.57317362818272</v>
+        <v>1.503858454718671</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.034419359676374</v>
@@ -7785,7 +7587,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.574298778268849</v>
+        <v>1.501725449493577</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.250591337423796</v>
@@ -7874,7 +7676,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.573229451533646</v>
+        <v>1.497613555289122</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.9383791156854</v>
@@ -7963,7 +7765,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.594136176225634</v>
+        <v>1.518983542641116</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.961726061719081</v>
@@ -8052,7 +7854,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.596811321521477</v>
+        <v>1.5305550070727</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.927650700595818</v>
@@ -8141,7 +7943,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.603488373903303</v>
+        <v>1.539403411304122</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.907492256119522</v>
@@ -8230,7 +8032,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.623995200229222</v>
+        <v>1.554725996091173</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.086702454625049</v>
@@ -8319,7 +8121,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.626191795395377</v>
+        <v>1.552674767224469</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.097976939499656</v>
@@ -8408,7 +8210,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.631480714783109</v>
+        <v>1.552646688278944</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.012828286776058</v>
@@ -8497,7 +8299,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.638827816022088</v>
+        <v>1.558088917755577</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.184691332963602</v>
@@ -8586,7 +8388,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.643200640961098</v>
+        <v>1.560501461830642</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.333682042207896</v>
@@ -8675,7 +8477,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.647207581842773</v>
+        <v>1.565124082181493</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.725044387164521</v>
@@ -8764,7 +8566,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.648625854523899</v>
+        <v>1.570004172357352</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.084943518456324</v>
@@ -8853,7 +8655,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.639480411831617</v>
+        <v>1.565405628129932</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.130124785425856</v>
@@ -8942,7 +8744,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.640936689374275</v>
+        <v>1.568324089611695</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.22166762353144</v>
@@ -9031,7 +8833,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.641444278332723</v>
+        <v>1.569379592623732</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.259247458967117</v>
@@ -9120,7 +8922,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.653778130260553</v>
+        <v>1.584239741970609</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.78351030866727</v>
@@ -9209,7 +9011,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.646678020033634</v>
+        <v>1.582094497481753</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.28100588731876</v>
@@ -9298,7 +9100,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.629298064647578</v>
+        <v>1.566546272127661</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.276192071040005</v>
@@ -9387,7 +9189,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.617019719430739</v>
+        <v>1.560689618745768</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.252027462285626</v>
@@ -9476,7 +9278,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.604131961520041</v>
+        <v>1.54829747167953</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.356777428755659</v>
@@ -9565,7 +9367,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.596446249697088</v>
+        <v>1.544666927670887</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.349730353500263</v>
@@ -9654,7 +9456,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.59935313112626</v>
+        <v>1.546366004011245</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.137013122417852</v>
@@ -9743,7 +9545,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.609291886631834</v>
+        <v>1.559617745022811</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.83270266433623</v>
@@ -9832,7 +9634,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.59668621335142</v>
+        <v>1.548463264912707</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.87626590135338</v>
@@ -9921,7 +9723,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.584616684216732</v>
+        <v>1.542701471009251</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.306365663196491</v>
@@ -10010,7 +9812,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.577580029090826</v>
+        <v>1.534750538416403</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.273473697027572</v>
@@ -10099,7 +9901,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.573295559600081</v>
+        <v>1.537508825141624</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.787991682459221</v>
@@ -10188,7 +9990,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.577576428411094</v>
+        <v>1.544432825306112</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.291902697220099</v>
@@ -10474,7 +10276,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.546352355742861</v>
+        <v>1.472358446874727</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.727892279547568</v>
@@ -10563,7 +10365,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.563281716757075</v>
+        <v>1.476913647932785</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.763322076838642</v>
@@ -10652,7 +10454,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.568807489056924</v>
+        <v>1.47937543449119</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.611080840284562</v>
@@ -10741,7 +10543,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.579556645198294</v>
+        <v>1.485772027166466</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.583937033773086</v>
@@ -10830,7 +10632,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.575864206652944</v>
+        <v>1.492737164626539</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.98262651813438</v>
@@ -10919,7 +10721,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.576312800493859</v>
+        <v>1.492348589973536</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.758022358902695</v>
@@ -11008,7 +10810,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.583724357510737</v>
+        <v>1.500435566300399</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.8929688322071</v>
@@ -11097,7 +10899,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.564479809680697</v>
+        <v>1.485313145633916</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.872269807194211</v>
@@ -11186,7 +10988,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.587877648567165</v>
+        <v>1.507442154005801</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.996908248917158</v>
@@ -11275,7 +11077,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.600314060376572</v>
+        <v>1.516001902640678</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.70013891783298</v>
@@ -11364,7 +11166,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.600027357100553</v>
+        <v>1.514316198869521</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.863709232557238</v>
@@ -11453,7 +11255,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.595099758142532</v>
+        <v>1.514384502032697</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.382536247551191</v>
@@ -11542,7 +11344,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.603950334033993</v>
+        <v>1.520497664226631</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.761158718449252</v>
@@ -11631,7 +11433,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.592422562544718</v>
+        <v>1.516642221222817</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.93176912287946</v>
@@ -11720,7 +11522,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.590504921146655</v>
+        <v>1.508624429903904</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.841322695834329</v>
@@ -11809,7 +11611,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.583527175803215</v>
+        <v>1.501819462243306</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.927846448364756</v>
@@ -11898,7 +11700,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.572380208944417</v>
+        <v>1.497616824205761</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.705324628957125</v>
@@ -11987,7 +11789,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.566187375029556</v>
+        <v>1.492233517353807</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.748071538257525</v>
@@ -12076,7 +11878,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.565677503307351</v>
+        <v>1.49445734289409</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.756408846679473</v>
@@ -12165,7 +11967,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.566837878155471</v>
+        <v>1.493363975314572</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.763952715045118</v>
@@ -12254,7 +12056,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.566291463776364</v>
+        <v>1.504671185237411</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.782079099540232</v>
@@ -12343,7 +12145,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.563402373644103</v>
+        <v>1.49672585910586</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.343587020848336</v>
@@ -12432,7 +12234,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.560800114744086</v>
+        <v>1.490737833881666</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.817769270767467</v>
@@ -12521,7 +12323,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.552070791222455</v>
+        <v>1.483825292102233</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.677897577518999</v>
@@ -12610,7 +12412,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.540043355358871</v>
+        <v>1.475541921593635</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.797757561622934</v>
@@ -12699,7 +12501,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.543614979139653</v>
+        <v>1.476056366994176</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.803107798502226</v>
@@ -12788,7 +12590,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.543030798995359</v>
+        <v>1.47432539460427</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.787683309863288</v>
@@ -12877,7 +12679,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.541169444533424</v>
+        <v>1.472945930813478</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.901527814559865</v>
@@ -12966,7 +12768,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.535053687728223</v>
+        <v>1.46636046396287</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.74817898268669</v>
@@ -13055,7 +12857,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.531968968028501</v>
+        <v>1.465825034459782</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.768708296737686</v>
@@ -13144,7 +12946,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.533588067404264</v>
+        <v>1.471894702743052</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.925553034752941</v>
@@ -13233,7 +13035,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.534299972778861</v>
+        <v>1.476576388883327</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.860083053819888</v>
@@ -13322,7 +13124,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.530125622742011</v>
+        <v>1.469630774556041</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.902805314028069</v>
@@ -13411,7 +13213,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.536974954134452</v>
+        <v>1.478872226828493</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.718305733260177</v>
@@ -13500,7 +13302,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.53368512315379</v>
+        <v>1.483318816029791</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.913964010672609</v>
@@ -13589,7 +13391,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.533392646878142</v>
+        <v>1.472072608595687</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.627911764746456</v>
@@ -13678,7 +13480,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.545432528499766</v>
+        <v>1.479673935751208</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.857541220117102</v>
@@ -13767,7 +13569,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.543145428379343</v>
+        <v>1.476233152446159</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.010188423751622</v>
@@ -13856,7 +13658,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.536458694295008</v>
+        <v>1.4706787885892</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.745573856245638</v>
@@ -13945,7 +13747,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.540013566399035</v>
+        <v>1.468918319837777</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.021780800081382</v>
@@ -14034,7 +13836,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.541863225745182</v>
+        <v>1.477366728365229</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.077789154950997</v>
@@ -14123,7 +13925,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.546837423165639</v>
+        <v>1.484533480656343</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.832248982930628</v>
@@ -14212,7 +14014,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.546840458436409</v>
+        <v>1.4867987858256</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.815141711587348</v>
@@ -14301,7 +14103,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.5564993912349</v>
+        <v>1.494629023615515</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.885363560536817</v>
@@ -14390,7 +14192,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.561456841174406</v>
+        <v>1.496797481217125</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.772301227257679</v>
@@ -14479,7 +14281,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.556371600847855</v>
+        <v>1.493110071740911</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.156664245104674</v>
@@ -14568,7 +14370,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.560666351854965</v>
+        <v>1.496188635109134</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.926125743671052</v>
@@ -14657,7 +14459,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.563949148537206</v>
+        <v>1.502134512924324</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.203445186807926</v>
@@ -14746,7 +14548,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551881149082437</v>
+        <v>1.492473814897689</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.047851209978254</v>
@@ -14835,7 +14637,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.56107180677369</v>
+        <v>1.493376401334329</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.728424533669437</v>
@@ -14924,7 +14726,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.565309224254759</v>
+        <v>1.492539672863408</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.835053986028896</v>
@@ -15013,7 +14815,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.558126827062447</v>
+        <v>1.497597170176488</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.198211530816881</v>
@@ -15102,7 +14904,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.563556579482042</v>
+        <v>1.500861871921188</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.30046056543383</v>
@@ -15191,7 +14993,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.580717297072084</v>
+        <v>1.517611562690379</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.098924522135631</v>
@@ -15280,7 +15082,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.579210159055311</v>
+        <v>1.517952125806986</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.284134524735346</v>
@@ -15369,7 +15171,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.572166087058856</v>
+        <v>1.505476385939794</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.232548957033017</v>
@@ -15458,7 +15260,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.569503158795827</v>
+        <v>1.505474523294299</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.013789143316845</v>
@@ -15547,7 +15349,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.5591850362596</v>
+        <v>1.49953180920486</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.113375916174933</v>
@@ -15636,7 +15438,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.565285617836399</v>
+        <v>1.506043605789946</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.781748501466536</v>
@@ -15725,7 +15527,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.565506469486471</v>
+        <v>1.510521416006043</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.10182525193847</v>
@@ -15814,7 +15616,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.555749535746041</v>
+        <v>1.49996991954119</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.75121734454788</v>
@@ -15903,7 +15705,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.547825566092804</v>
+        <v>1.493754235589973</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.078623947702914</v>
@@ -15992,7 +15794,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.552099208993914</v>
+        <v>1.496114745043056</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.857313063245676</v>
@@ -16081,7 +15883,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.560151775842854</v>
+        <v>1.505837249666245</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.019216619338923</v>
@@ -16170,7 +15972,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.540049424862912</v>
+        <v>1.489021951732333</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.443025447022018</v>
@@ -16259,7 +16061,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.540930286419861</v>
+        <v>1.498993271325987</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.383874663590807</v>
@@ -16348,7 +16150,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.546628950305912</v>
+        <v>1.498157567010881</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.495803761368141</v>
@@ -16437,7 +16239,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.536488066634801</v>
+        <v>1.494666615637682</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.455916958940009</v>
@@ -16526,7 +16328,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.517085514760833</v>
+        <v>1.479873099765735</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.441643051184109</v>
@@ -16615,7 +16417,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.525918622658959</v>
+        <v>1.486978098032537</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.50280597680089</v>
@@ -16704,7 +16506,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.525687313408047</v>
+        <v>1.492992917959919</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.398305190984963</v>
@@ -16793,7 +16595,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.512160359036447</v>
+        <v>1.478085056428755</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.346785146839848</v>
@@ -16882,7 +16684,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.505327437543203</v>
+        <v>1.467715891791031</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.532006102569448</v>
@@ -16971,7 +16773,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.493994495573091</v>
+        <v>1.455602924655904</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.520329887881716</v>
@@ -17060,7 +16862,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.486163903929095</v>
+        <v>1.449453258803852</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.36244462617607</v>
@@ -17149,7 +16951,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.509192933856496</v>
+        <v>1.471775002493888</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.490842365311173</v>
@@ -17435,7 +17237,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.511471802810795</v>
+        <v>1.426199345524691</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.017150370112324</v>
@@ -17524,7 +17326,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.513085464989955</v>
+        <v>1.42647403921598</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.641434510735796</v>
@@ -17613,7 +17415,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.515486899987451</v>
+        <v>1.432323328913671</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.205723342307345</v>
@@ -17702,7 +17504,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.524212151645794</v>
+        <v>1.447555947484672</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.569407885769424</v>
@@ -17791,7 +17593,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.516562105595782</v>
+        <v>1.449536069540456</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.788927976525414</v>
@@ -17880,7 +17682,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.517914486589645</v>
+        <v>1.445884871987968</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.847523323176103</v>
@@ -17969,7 +17771,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.52256870219767</v>
+        <v>1.441518670310311</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.379466742226024</v>
@@ -18058,7 +17860,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.531337312791872</v>
+        <v>1.449373906153336</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.143118633680971</v>
@@ -18147,7 +17949,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.535792681829347</v>
+        <v>1.450365510924421</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.201537033919416</v>
@@ -18236,7 +18038,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.536891810472016</v>
+        <v>1.458432280223068</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.425252649234419</v>
@@ -18325,7 +18127,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.543364235090942</v>
+        <v>1.464695366117504</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.038322898341897</v>
@@ -18414,7 +18216,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.550047327331189</v>
+        <v>1.470089675603861</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.749965879758815</v>
@@ -18503,7 +18305,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.55707750949191</v>
+        <v>1.48200154291182</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.07192930530388</v>
@@ -18592,7 +18394,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.543669428411221</v>
+        <v>1.468420528893988</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.388534755681578</v>
@@ -18681,7 +18483,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.536725485641968</v>
+        <v>1.457169479290755</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.097493934144853</v>
@@ -18770,7 +18572,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.531828328850982</v>
+        <v>1.45747784853713</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.132242066507897</v>
@@ -18859,7 +18661,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.526993245518904</v>
+        <v>1.455832754026319</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.149830550306034</v>
@@ -18948,7 +18750,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.527443132206583</v>
+        <v>1.456995106832755</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.166693137154481</v>
@@ -19037,7 +18839,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.531694871179491</v>
+        <v>1.454406376516047</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.081224828555143</v>
@@ -19126,7 +18928,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.537292771124333</v>
+        <v>1.45531794857727</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.242835700433799</v>
@@ -19215,7 +19017,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.537724489982375</v>
+        <v>1.466529668600525</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.014400317484442</v>
@@ -19304,7 +19106,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.534276438577869</v>
+        <v>1.461014461908535</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.222943115305516</v>
@@ -19393,7 +19195,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.530721855794118</v>
+        <v>1.455559934643372</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.194512956509969</v>
@@ -19482,7 +19284,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.524279734130849</v>
+        <v>1.451806622498398</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.931460514760457</v>
@@ -19571,7 +19373,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.518962107419507</v>
+        <v>1.448289366550329</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.214892385241285</v>
@@ -19660,7 +19462,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.510291023748995</v>
+        <v>1.440459344664339</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.984502655287362</v>
@@ -19749,7 +19551,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.510456602802211</v>
+        <v>1.43956069133032</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.238776110041503</v>
@@ -19838,7 +19640,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.508835651935619</v>
+        <v>1.434616238174279</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.156685239220425</v>
@@ -19927,7 +19729,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.514482639276141</v>
+        <v>1.437306445467249</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.012054426355357</v>
@@ -20016,7 +19818,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.519791131731635</v>
+        <v>1.440087243584479</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.846504286517444</v>
@@ -20105,7 +19907,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.517012209515598</v>
+        <v>1.436891675473769</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.024168247469933</v>
@@ -20194,7 +19996,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.513495664579479</v>
+        <v>1.432670288093712</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.037608702217498</v>
@@ -20283,7 +20085,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.505529331312287</v>
+        <v>1.426494476120385</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.97234673503755</v>
@@ -20372,7 +20174,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.504942292764615</v>
+        <v>1.429813053019815</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.985818553261422</v>
@@ -20461,7 +20263,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.499576700724967</v>
+        <v>1.431973985180228</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.840990951018483</v>
@@ -20550,7 +20352,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.505220523459858</v>
+        <v>1.430384823847167</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.434860189913842</v>
@@ -20639,7 +20441,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.513845288500927</v>
+        <v>1.439839294919975</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.428586854680974</v>
@@ -20728,7 +20530,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.517667833835839</v>
+        <v>1.447272776158683</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.095122345010253</v>
@@ -20817,7 +20619,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.517091289421845</v>
+        <v>1.44319704198705</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.842459817683512</v>
@@ -20906,7 +20708,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.518695956546906</v>
+        <v>1.434708645686358</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.876098525768407</v>
@@ -20995,7 +20797,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.51144734026792</v>
+        <v>1.425701681478238</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.997506477730189</v>
@@ -21084,7 +20886,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.50639644336533</v>
+        <v>1.425577294495356</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.208040823381944</v>
@@ -21173,7 +20975,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.49836555632433</v>
+        <v>1.423600018747643</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.175589013025835</v>
@@ -21262,7 +21064,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.4995437336816</v>
+        <v>1.428170730121536</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.70123843248295</v>
@@ -21351,7 +21153,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.503392650533832</v>
+        <v>1.430799323853286</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.009118506485497</v>
@@ -21440,7 +21242,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.513518241997611</v>
+        <v>1.44229294313431</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.856975530007364</v>
@@ -21529,7 +21331,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.522955636821762</v>
+        <v>1.453781029131927</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.753736810717114</v>
@@ -21618,7 +21420,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.528415798532466</v>
+        <v>1.46076092825778</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.036369333360128</v>
@@ -21707,7 +21509,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.524973666290732</v>
+        <v>1.453206913301111</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.120045756143596</v>
@@ -21796,7 +21598,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.536104818506133</v>
+        <v>1.460489818657921</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.65661559175805</v>
@@ -21885,7 +21687,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.528599675310866</v>
+        <v>1.452458006746238</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.005966398561985</v>
@@ -21974,7 +21776,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.511825470249829</v>
+        <v>1.44439419631295</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.048809262791311</v>
@@ -22063,7 +21865,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.506074533655769</v>
+        <v>1.436493251824488</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.988563124531992</v>
@@ -22152,7 +21954,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.51222628523038</v>
+        <v>1.443074356853727</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.024590666461756</v>
@@ -22241,7 +22043,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.514173318181888</v>
+        <v>1.4550469928621</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.784081027737519</v>
@@ -22330,7 +22132,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.512346343503657</v>
+        <v>1.451768623464418</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.932853304994002</v>
@@ -22419,7 +22221,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.511200059068693</v>
+        <v>1.451134606012052</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.099290529777694</v>
@@ -22508,7 +22310,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.520020001541283</v>
+        <v>1.455531677483743</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.997461965768289</v>
@@ -22597,7 +22399,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.521801289017157</v>
+        <v>1.456599132388774</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.117321713353911</v>
@@ -22686,7 +22488,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.517010827151311</v>
+        <v>1.455638574231039</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.063765740608681</v>
@@ -22775,7 +22577,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.518684850275905</v>
+        <v>1.453153160174196</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.979582392788424</v>
@@ -22864,7 +22666,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.518923303097635</v>
+        <v>1.451601973542259</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.847724586476876</v>
@@ -22953,7 +22755,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.508811675421639</v>
+        <v>1.445510974016527</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.761747248309285</v>
@@ -23042,7 +22844,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.515349476685792</v>
+        <v>1.454292980888917</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.695681364298453</v>
@@ -23131,7 +22933,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.518538112389781</v>
+        <v>1.457183950870247</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.116863255398619</v>
@@ -23220,7 +23022,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.539795684088088</v>
+        <v>1.473661812572562</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.583797386302983</v>
@@ -23309,7 +23111,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.54457112780719</v>
+        <v>1.481402555832066</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.34457355762546</v>
@@ -23398,7 +23200,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.539599152736121</v>
+        <v>1.4790535562927</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.214083704715692</v>
@@ -23487,7 +23289,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.534329906578117</v>
+        <v>1.476177294349677</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.20885688545364</v>
@@ -23576,7 +23378,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.540319451552169</v>
+        <v>1.476118686595266</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.815048528130942</v>
@@ -23665,7 +23467,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.544267657846015</v>
+        <v>1.484176933234366</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.120661511050998</v>
@@ -23754,7 +23556,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.529424809986447</v>
+        <v>1.475340549043776</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.216861408800333</v>
@@ -23843,7 +23645,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.533906251837596</v>
+        <v>1.480392705026737</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.075932277865049</v>
@@ -23932,7 +23734,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.536485749087128</v>
+        <v>1.484797313477859</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.138655684443019</v>
@@ -24021,7 +23823,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.534555535319603</v>
+        <v>1.483180731101393</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.237301303750485</v>
@@ -24110,7 +23912,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.542611769101386</v>
+        <v>1.493423647096394</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.44997041635536</v>
@@ -24396,7 +24198,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.586761652075194</v>
+        <v>1.488634252129174</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.414438782758046</v>
@@ -24485,7 +24287,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.584017010915026</v>
+        <v>1.485052214220013</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.069531664624531</v>
@@ -24574,7 +24376,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.586104742361514</v>
+        <v>1.487377763845074</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.595781156136627</v>
@@ -24663,7 +24465,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.575361274729423</v>
+        <v>1.47652550476614</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.072997727824926</v>
@@ -24752,7 +24554,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.571104953570977</v>
+        <v>1.467401235285347</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.848782472399273</v>
@@ -24841,7 +24643,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.568491684993532</v>
+        <v>1.459707802298853</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.333419504017056</v>
@@ -24930,7 +24732,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.576023158191202</v>
+        <v>1.466315485870968</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.296305838983704</v>
@@ -25019,7 +24821,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.579926750083619</v>
+        <v>1.464959631887438</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.040970589036661</v>
@@ -25108,7 +24910,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.584095961682108</v>
+        <v>1.473781078976909</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.274276565008781</v>
@@ -25197,7 +24999,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.583545096705484</v>
+        <v>1.477300444712572</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.185443923727976</v>
@@ -25286,7 +25088,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.57958309130807</v>
+        <v>1.472500125699619</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.166859579402132</v>
@@ -25375,7 +25177,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.588661525554576</v>
+        <v>1.479493146445036</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.781024649516766</v>
@@ -25464,7 +25266,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.592844250622599</v>
+        <v>1.489378916423525</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.345104871352163</v>
@@ -25553,7 +25355,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.592403815617567</v>
+        <v>1.483968511527372</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.130498647599899</v>
@@ -25642,7 +25444,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.584523418471197</v>
+        <v>1.47650072649864</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.429288003708018</v>
@@ -25731,7 +25533,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.58214672121601</v>
+        <v>1.476779412793172</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.129576424851029</v>
@@ -25820,7 +25622,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.569535221328001</v>
+        <v>1.467228216117212</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.364714637534175</v>
@@ -25909,7 +25711,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.56421871755114</v>
+        <v>1.460978152407792</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.315611916131597</v>
@@ -25998,7 +25800,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.580714708428931</v>
+        <v>1.47696444661469</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.520666521206638</v>
@@ -26087,7 +25889,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.580856368562282</v>
+        <v>1.479901427502907</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.553301246252221</v>
@@ -26176,7 +25978,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.57378296986549</v>
+        <v>1.480284465292467</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.652062705463294</v>
@@ -26265,7 +26067,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.573038620708616</v>
+        <v>1.478020298627444</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.02000336302304</v>
@@ -26354,7 +26156,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.562227200775784</v>
+        <v>1.47148618533157</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.619028877295074</v>
@@ -26443,7 +26245,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.563970510584388</v>
+        <v>1.474634076322192</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.097015718312647</v>
@@ -26532,7 +26334,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.568802084428211</v>
+        <v>1.468738237774935</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.629358034291128</v>
@@ -26621,7 +26423,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.581250114093841</v>
+        <v>1.48002980454744</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.52905486810372</v>
@@ -26710,7 +26512,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.568155107278015</v>
+        <v>1.476980017058256</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.247168975264857</v>
@@ -26799,7 +26601,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.575466794081869</v>
+        <v>1.483549828394418</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.078541003403653</v>
@@ -26888,7 +26690,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.571408767148553</v>
+        <v>1.489027776519282</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.214509798572576</v>
@@ -26977,7 +26779,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.570763917826656</v>
+        <v>1.491760899645598</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.565893610831342</v>
@@ -27066,7 +26868,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.570871921312558</v>
+        <v>1.492272965240139</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.259132553251411</v>
@@ -27155,7 +26957,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.585065444866423</v>
+        <v>1.504293585030808</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.558798280400226</v>
@@ -27244,7 +27046,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.581609373802452</v>
+        <v>1.507603362226479</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.612497767894854</v>
@@ -27333,7 +27135,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.562956211318709</v>
+        <v>1.490016619318742</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.598263651712982</v>
@@ -27422,7 +27224,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.575298485399778</v>
+        <v>1.50281313725659</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.324241126498015</v>
@@ -27511,7 +27313,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.586761376429668</v>
+        <v>1.514885030444814</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.262468648960936</v>
@@ -27600,7 +27402,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.578368369319517</v>
+        <v>1.503665680252842</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.44256130748992</v>
@@ -27689,7 +27491,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.589377500283832</v>
+        <v>1.517634708720467</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.640573135297323</v>
@@ -27778,7 +27580,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.592141096222825</v>
+        <v>1.518609337819852</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.36206013210337</v>
@@ -27867,7 +27669,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.588911336546786</v>
+        <v>1.524854091495803</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.408851814872309</v>
@@ -27956,7 +27758,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.577405932835081</v>
+        <v>1.511986219484602</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.422250071418779</v>
@@ -28045,7 +27847,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.574877099227879</v>
+        <v>1.512017614984849</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.22087758443007</v>
@@ -28134,7 +27936,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.570542956390573</v>
+        <v>1.50690110734704</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.70155521267954</v>
@@ -28223,7 +28025,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.582862744517627</v>
+        <v>1.517322452575615</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.310279051887705</v>
@@ -28312,7 +28114,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.582289412181151</v>
+        <v>1.511362867996137</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.217983706057923</v>
@@ -28401,7 +28203,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.578315566566834</v>
+        <v>1.508142368178026</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.014606127957772</v>
@@ -28490,7 +28292,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.570860454633368</v>
+        <v>1.502231515348493</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.346125685839784</v>
@@ -28579,7 +28381,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.575486935408131</v>
+        <v>1.503546549487512</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.71964150081499</v>
@@ -28668,7 +28470,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.578741974894314</v>
+        <v>1.502153953179096</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.576722765534707</v>
@@ -28757,7 +28559,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.58104615766035</v>
+        <v>1.503887069116962</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.484707364639612</v>
@@ -28846,7 +28648,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.579242828933244</v>
+        <v>1.498144997802593</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.192415931916901</v>
@@ -28935,7 +28737,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.583500545598007</v>
+        <v>1.503179764472919</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.288851359046769</v>
@@ -29024,7 +28826,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.574007266745624</v>
+        <v>1.495826294360375</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.42455931562793</v>
@@ -29113,7 +28915,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.574790670424557</v>
+        <v>1.494822594329315</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.597779514195293</v>
@@ -29202,7 +29004,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.568792693337937</v>
+        <v>1.486778144982343</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.572726098909115</v>
@@ -29291,7 +29093,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.567014697356528</v>
+        <v>1.481966957434494</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.3019800061906</v>
@@ -29380,7 +29182,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.561169784585655</v>
+        <v>1.48071214009397</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.47378185379565</v>
@@ -29469,7 +29271,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.562230035958804</v>
+        <v>1.47552370783177</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.432582306340251</v>
@@ -29558,7 +29360,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.558830131831068</v>
+        <v>1.470071153433973</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.982968698090796</v>
@@ -29647,7 +29449,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.564735595414465</v>
+        <v>1.478007585944817</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.581681633102406</v>
@@ -29736,7 +29538,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.576662820239914</v>
+        <v>1.485637699568732</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.086606470991359</v>
@@ -29825,7 +29627,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.581321063444798</v>
+        <v>1.491411910813905</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.051267124592891</v>
@@ -29914,7 +29716,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.576819469125723</v>
+        <v>1.489977786769433</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.330724564206049</v>
@@ -30003,7 +29805,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.579052100147058</v>
+        <v>1.496946633906828</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.705236011844878</v>
@@ -30092,7 +29894,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.57243954983672</v>
+        <v>1.490070485215497</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.369113316699418</v>
@@ -30181,7 +29983,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.572418261361725</v>
+        <v>1.489958236398141</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.837503076634333</v>
@@ -30270,7 +30072,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.564584542253568</v>
+        <v>1.4896169989723</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.238940064185598</v>
@@ -30359,7 +30161,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.54859625791312</v>
+        <v>1.475937939341379</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.911222568087899</v>
@@ -30448,7 +30250,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.558609672341243</v>
+        <v>1.489563337063708</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.151511651811584</v>
@@ -30537,7 +30339,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.561972333049224</v>
+        <v>1.494555433820434</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.000516728569174</v>
@@ -30626,7 +30428,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.569782140542366</v>
+        <v>1.505282919220561</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.335736897472923</v>
@@ -30715,7 +30517,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.563898716520382</v>
+        <v>1.500362418053317</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.454169743019436</v>
@@ -30804,7 +30606,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.563842184603643</v>
+        <v>1.50348526567721</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.411673456653538</v>
@@ -30893,7 +30695,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.564509658499845</v>
+        <v>1.503137217066705</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.425971026417701</v>
@@ -30982,7 +30784,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.55921978928807</v>
+        <v>1.498493454610211</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.088059789458623</v>
@@ -31071,7 +30873,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.551815037586594</v>
+        <v>1.497286649084352</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.014858664802424</v>
@@ -31357,7 +31159,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.648477947551306</v>
+        <v>1.579454456565052</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.434796302195912</v>
@@ -31446,7 +31248,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.658626926579146</v>
+        <v>1.587342312067036</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.542404398765212</v>
@@ -31535,7 +31337,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.661463966051318</v>
+        <v>1.589806956069534</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.341565516960034</v>
@@ -31624,7 +31426,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.666215218819058</v>
+        <v>1.595917675971137</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.781256837462911</v>
@@ -31713,7 +31515,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.653614734173054</v>
+        <v>1.589347239601495</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.884833067311478</v>
@@ -31802,7 +31604,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.654564435393999</v>
+        <v>1.593457359387939</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.534985849716564</v>
@@ -31891,7 +31693,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.654620944224968</v>
+        <v>1.593023047168756</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.473199700249471</v>
@@ -31980,7 +31782,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.649308182732874</v>
+        <v>1.592304379979675</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.534440692627569</v>
@@ -32069,7 +31871,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.64972821771061</v>
+        <v>1.594837134036897</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.680233702689564</v>
@@ -32158,7 +31960,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.660082685841564</v>
+        <v>1.601769759156671</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.191639098664754</v>
@@ -32247,7 +32049,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.650890642092239</v>
+        <v>1.597210569480628</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.764364896449989</v>
@@ -32336,7 +32138,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.647896527368666</v>
+        <v>1.597533940619652</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.890598492287543</v>
@@ -32425,7 +32227,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.648835550008894</v>
+        <v>1.599442474365107</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.547419367004575</v>
@@ -32514,7 +32316,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.637937695028453</v>
+        <v>1.588570496678121</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.809039861117386</v>
@@ -32603,7 +32405,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.626485617454388</v>
+        <v>1.580530121349628</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.545740770485511</v>
@@ -32692,7 +32494,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.614365284432375</v>
+        <v>1.569012022490813</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.222926990191897</v>
@@ -32781,7 +32583,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.623329799092963</v>
+        <v>1.571149483274975</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.29329772054127</v>
@@ -32870,7 +32672,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.616862859543704</v>
+        <v>1.561555467004337</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.182454899882001</v>
@@ -32959,7 +32761,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.617690420486079</v>
+        <v>1.56010406432823</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.540496043137027</v>
@@ -33048,7 +32850,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.627613924111751</v>
+        <v>1.565796072642978</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.471293444128997</v>
@@ -33137,7 +32939,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.629080986732213</v>
+        <v>1.570631379092481</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.509372839278195</v>
@@ -33226,7 +33028,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.625685585665747</v>
+        <v>1.567895555456569</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.891436150498806</v>
@@ -33315,7 +33117,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.640060063098047</v>
+        <v>1.579619608565577</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.191126051534526</v>
@@ -33404,7 +33206,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.633959063742543</v>
+        <v>1.566748074839982</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.504125757087124</v>
@@ -33493,7 +33295,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.635053143120791</v>
+        <v>1.56798085471515</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.293177831046587</v>
@@ -33582,7 +33384,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.642742890453664</v>
+        <v>1.572794381920866</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.521553039331936</v>
@@ -33671,7 +33473,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.640320353205955</v>
+        <v>1.571858346379937</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.095967542016091</v>
@@ -33760,7 +33562,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.632976287881888</v>
+        <v>1.565505455744301</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.223434460760486</v>
@@ -33849,7 +33651,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.632022612320126</v>
+        <v>1.564339743526546</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.067444661384698</v>
@@ -33938,7 +33740,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.641710918286325</v>
+        <v>1.573505815764123</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.581074679114656</v>
@@ -34027,7 +33829,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.657080622234224</v>
+        <v>1.584663084118706</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.641518967803196</v>
@@ -34116,7 +33918,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.643685166118023</v>
+        <v>1.573066482624113</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.543480949203092</v>
@@ -34205,7 +34007,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.644341654459912</v>
+        <v>1.572214398612092</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.664560926033027</v>
@@ -34294,7 +34096,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.640826082365352</v>
+        <v>1.572943791975974</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.477385899239512</v>
@@ -34383,7 +34185,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.649472304164851</v>
+        <v>1.582333069808914</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.436871240356036</v>
@@ -34472,7 +34274,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.634311082421223</v>
+        <v>1.560126731052691</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.367564038841594</v>
@@ -34561,7 +34363,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.63620031030516</v>
+        <v>1.557763742671892</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.595218107368324</v>
@@ -34650,7 +34452,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.620691356615637</v>
+        <v>1.551227830237992</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.202427073203475</v>
@@ -34739,7 +34541,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.612767817153158</v>
+        <v>1.547266548789087</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.314007663088133</v>
@@ -34828,7 +34630,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.596539261864011</v>
+        <v>1.535372392106616</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.804481437155847</v>
@@ -34917,7 +34719,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.590041277536022</v>
+        <v>1.530140883496914</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.978779960749196</v>
@@ -35006,7 +34808,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.590926706276888</v>
+        <v>1.53061571685295</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.105568534238711</v>
@@ -35095,7 +34897,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.592645434447422</v>
+        <v>1.529032559246332</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.977621426633067</v>
@@ -35184,7 +34986,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.606765434569229</v>
+        <v>1.538876008968855</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.950488630131458</v>
@@ -35273,7 +35075,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.606909973265223</v>
+        <v>1.533213919662164</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.965597364091879</v>
@@ -35362,7 +35164,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.594746063968066</v>
+        <v>1.523796434634509</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.980544796601092</v>
@@ -35451,7 +35253,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.587756137949555</v>
+        <v>1.525518750871338</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.150484715699694</v>
@@ -35540,7 +35342,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.588741830979691</v>
+        <v>1.525704606698769</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.920143576513308</v>
@@ -35629,7 +35431,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.589565369214182</v>
+        <v>1.527039886627064</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.168604820817517</v>
@@ -35718,7 +35520,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.590396634621886</v>
+        <v>1.524407301476358</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.735759236334841</v>
@@ -35807,7 +35609,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.590920136044235</v>
+        <v>1.526371692100899</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.029864025773128</v>
@@ -35896,7 +35698,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.582752742528263</v>
+        <v>1.520299852807222</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.890368715149494</v>
@@ -35985,7 +35787,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.584131584531261</v>
+        <v>1.520920341078504</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.004213372874921</v>
@@ -36074,7 +35876,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.593879744167605</v>
+        <v>1.527540048131355</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.22949162908763</v>
@@ -36163,7 +35965,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.604053388051675</v>
+        <v>1.536060297552661</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.089542940545969</v>
@@ -36252,7 +36054,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.606268037731117</v>
+        <v>1.53156400161453</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.139608484717415</v>
@@ -36341,7 +36143,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.607434374447882</v>
+        <v>1.531903057665917</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.205140931413858</v>
@@ -36430,7 +36232,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.606331610244166</v>
+        <v>1.534534431688524</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.995361976317114</v>
@@ -36519,7 +36321,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.615035749609732</v>
+        <v>1.54485408711658</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.711711993491078</v>
@@ -36608,7 +36410,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.610387326179735</v>
+        <v>1.545173026217746</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.180130726722604</v>
@@ -36697,7 +36499,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.613389500076752</v>
+        <v>1.545890033433056</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.866498087688807</v>
@@ -36786,7 +36588,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.615292010061642</v>
+        <v>1.547307852692662</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.05921400116391</v>
@@ -36875,7 +36677,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.608671183006175</v>
+        <v>1.541454810355022</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.362265075877234</v>
@@ -36964,7 +36766,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.608115139443796</v>
+        <v>1.538587483228683</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.889582777998258</v>
@@ -37053,7 +36855,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.608177439336822</v>
+        <v>1.540321735199502</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.203333727251438</v>
@@ -37142,7 +36944,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.616618135803883</v>
+        <v>1.547206627673346</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.973471767357566</v>
@@ -37231,7 +37033,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.618206614513523</v>
+        <v>1.554369094971653</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.133198356688757</v>
@@ -37320,7 +37122,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.607292660473192</v>
+        <v>1.543852725341237</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.157655300056574</v>
@@ -37409,7 +37211,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.605391306679413</v>
+        <v>1.550999963880678</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.50710068853687</v>
@@ -37498,7 +37300,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.60488702476278</v>
+        <v>1.549863521935276</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.089407582921188</v>
@@ -37587,7 +37389,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.604883015480834</v>
+        <v>1.556134819796192</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.254206541837847</v>
@@ -37676,7 +37478,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.605165784999488</v>
+        <v>1.556291892965166</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.935393028101212</v>
@@ -37765,7 +37567,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.605080990632155</v>
+        <v>1.557665246446012</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.163809950329577</v>
@@ -37854,7 +37656,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.596690357012696</v>
+        <v>1.54785485945279</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.176212224187637</v>
@@ -37943,7 +37745,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.598291953410286</v>
+        <v>1.552960796824426</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.041436016698668</v>
@@ -38032,7 +37834,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.618739835593568</v>
+        <v>1.578043395672154</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.34009075965583</v>
@@ -38318,7 +38120,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.499961051143612</v>
+        <v>1.470087161015037</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.77113864717479</v>
@@ -38407,7 +38209,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.50959349285679</v>
+        <v>1.476343692677806</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.324442194607848</v>
@@ -38496,7 +38298,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.525024495979837</v>
+        <v>1.495740656145432</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.856585921229029</v>
@@ -38585,7 +38387,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.545651738563615</v>
+        <v>1.510829790223203</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.394502930057872</v>
@@ -38674,7 +38476,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.556769411126824</v>
+        <v>1.525856692480413</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.382675598685474</v>
@@ -38763,7 +38565,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.565096554688313</v>
+        <v>1.526652562175211</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.781662012366159</v>
@@ -38852,7 +38654,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.591472615996005</v>
+        <v>1.542613375736259</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.080909174080563</v>
@@ -38941,7 +38743,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.606311710529301</v>
+        <v>1.559558234763128</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.998289312383376</v>
@@ -39030,7 +38832,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615542336407654</v>
+        <v>1.567726745684262</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.998388192152027</v>
@@ -39119,7 +38921,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.612840472209622</v>
+        <v>1.568129090794145</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.028668267150012</v>
@@ -39208,7 +39010,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.62125732021759</v>
+        <v>1.573346651122777</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.858038013426295</v>
@@ -39297,7 +39099,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.638192564470621</v>
+        <v>1.584005968513904</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.557249868402405</v>
@@ -39386,7 +39188,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.656969434061255</v>
+        <v>1.606669478737168</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.965110199867624</v>
@@ -39475,7 +39277,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.637664552192089</v>
+        <v>1.58751727882034</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.789321931821642</v>
@@ -39564,7 +39366,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.652385575010481</v>
+        <v>1.599561788715266</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.681157114072628</v>
@@ -39653,7 +39455,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.652258515712276</v>
+        <v>1.599358818672442</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.175689264192634</v>
@@ -39742,7 +39544,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.629647168499966</v>
+        <v>1.583339510029501</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.753264539666411</v>
@@ -39831,7 +39633,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.631434298302605</v>
+        <v>1.582433106900442</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.895858853571437</v>
@@ -39920,7 +39722,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.632395926112321</v>
+        <v>1.579178846033873</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.690173613064454</v>
@@ -40009,7 +39811,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.63361116606678</v>
+        <v>1.584364574951759</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.142662662362715</v>
@@ -40098,7 +39900,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.605182677521351</v>
+        <v>1.568346212616345</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.501843121132645</v>
@@ -40187,7 +39989,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.610081798376644</v>
+        <v>1.57117738714842</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.711672979757187</v>
@@ -40276,7 +40078,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.6070684023445</v>
+        <v>1.567350865683186</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.790166510971964</v>
@@ -40365,7 +40167,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.607564274911687</v>
+        <v>1.570173404374775</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.557233036515993</v>
@@ -40454,7 +40256,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.619145242656851</v>
+        <v>1.578933247953133</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.666657011164839</v>
@@ -40543,7 +40345,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.61340941435243</v>
+        <v>1.578030758454987</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.731228606798509</v>
@@ -40632,7 +40434,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.614243487041721</v>
+        <v>1.584255335285816</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.737444336069267</v>
@@ -40721,7 +40523,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.620289552409986</v>
+        <v>1.590998753503354</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.622097966090512</v>
@@ -40810,7 +40612,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.62458389419989</v>
+        <v>1.592619587055731</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.541903223542505</v>
@@ -40899,7 +40701,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.634388933068238</v>
+        <v>1.601648483849454</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.580488063240618</v>
@@ -40988,7 +40790,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.626839861041588</v>
+        <v>1.591212661605003</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.730433256881617</v>
@@ -41077,7 +40879,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.644932054214383</v>
+        <v>1.608790366513114</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.791788315269741</v>
@@ -41166,7 +40968,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.646283628313446</v>
+        <v>1.609115922535889</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.628776234370013</v>
@@ -41255,7 +41057,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.646711895644405</v>
+        <v>1.611137814556586</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.663912510537297</v>
@@ -41344,7 +41146,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.654865140446727</v>
+        <v>1.618897013221876</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.432329416763167</v>
@@ -41433,7 +41235,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.672756370064298</v>
+        <v>1.627928245784038</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.674294426506968</v>
@@ -41522,7 +41324,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.667785531804159</v>
+        <v>1.624927189679172</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.612811575440492</v>
@@ -41611,7 +41413,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.671585364103086</v>
+        <v>1.627154522494649</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.504780339076117</v>
@@ -41700,7 +41502,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.665106658318422</v>
+        <v>1.615093532433098</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.703214572121796</v>
@@ -41789,7 +41591,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.657521644400491</v>
+        <v>1.607315812822263</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.567164881139213</v>
@@ -41878,7 +41680,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.661882929887202</v>
+        <v>1.607898574322591</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.083085124241893</v>
@@ -41967,7 +41769,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.657536423249438</v>
+        <v>1.601734026423841</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.409071200250572</v>
@@ -42056,7 +41858,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.651507634656401</v>
+        <v>1.603511943545383</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.672017295509765</v>
@@ -42145,7 +41947,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.658539918634484</v>
+        <v>1.60387687809555</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.559259373643052</v>
@@ -42234,7 +42036,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.658580092247491</v>
+        <v>1.601039942869555</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.558094745357421</v>
@@ -42323,7 +42125,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.664238758446811</v>
+        <v>1.600488208068718</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.963410442954856</v>
@@ -42412,7 +42214,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.644833347879235</v>
+        <v>1.582924939209412</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.978356883153102</v>
@@ -42501,7 +42303,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.643167358823288</v>
+        <v>1.582742762865841</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.188730405502913</v>
@@ -42590,7 +42392,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.630663306326462</v>
+        <v>1.570540522458752</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.21245246640541</v>
@@ -42679,7 +42481,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.632762877796462</v>
+        <v>1.568693312878745</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.11183750115522</v>
@@ -42768,7 +42570,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.63791084536154</v>
+        <v>1.569837882734914</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.342256744153584</v>
@@ -42857,7 +42659,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.643781299770899</v>
+        <v>1.577334102891098</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.195544587562446</v>
@@ -42946,7 +42748,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.638946310025641</v>
+        <v>1.570035888541514</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.894854558364321</v>
@@ -43035,7 +42837,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.655455251920853</v>
+        <v>1.587715758171502</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.206141847366561</v>
@@ -43124,7 +42926,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.639775803829091</v>
+        <v>1.575922222725945</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.212520337514626</v>
@@ -43213,7 +43015,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.641390727997359</v>
+        <v>1.576131982838968</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.356734562731468</v>
@@ -43302,7 +43104,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.641545654086245</v>
+        <v>1.581504490732893</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.223767251642482</v>
@@ -43391,7 +43193,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.647824114652809</v>
+        <v>1.577881930210683</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.123601178353831</v>
@@ -43480,7 +43282,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.653138907371249</v>
+        <v>1.587947483385475</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.864953952327028</v>
@@ -43569,7 +43371,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.648278860597396</v>
+        <v>1.584966367560261</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.251700066444615</v>
@@ -43658,7 +43460,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.658632126082722</v>
+        <v>1.602449233140816</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.448540758280309</v>
@@ -43747,7 +43549,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.669866212112985</v>
+        <v>1.61619648754675</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.003994193615867</v>
@@ -43836,7 +43638,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.666797969106864</v>
+        <v>1.617481424517869</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.449385680884129</v>
@@ -43925,7 +43727,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.66879932101113</v>
+        <v>1.621974412543707</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.899606969446061</v>
@@ -44014,7 +43816,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.656341861445357</v>
+        <v>1.612068204336999</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.557484815200187</v>
@@ -44103,7 +43905,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.657129935189743</v>
+        <v>1.616345289442088</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.109919714335503</v>
@@ -44192,7 +43994,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.650551086555447</v>
+        <v>1.619468287898477</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.590859733624624</v>
@@ -44281,7 +44083,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.635634541270832</v>
+        <v>1.603960993910613</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.75594413396914</v>
@@ -44370,7 +44172,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.623347319438548</v>
+        <v>1.598472196739905</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.901162426314821</v>
@@ -44459,7 +44261,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.634556765969378</v>
+        <v>1.608674215157703</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.847739022752039</v>
@@ -44548,7 +44350,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.628303230072107</v>
+        <v>1.603395075055149</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.023847886540357</v>
@@ -44637,7 +44439,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.61419337254775</v>
+        <v>1.591497672070258</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.046865959579347</v>
@@ -44726,7 +44528,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.604251306167866</v>
+        <v>1.584892349474356</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.814014876600841</v>
@@ -44815,7 +44617,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.601165329943928</v>
+        <v>1.575508764315875</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.110907766258733</v>
@@ -44904,7 +44706,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.600120687933268</v>
+        <v>1.572038514027023</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.054883367091996</v>
@@ -44993,7 +44795,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.598138677573095</v>
+        <v>1.571704908395291</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.916491966893865</v>
